--- a/2020-03-11 - 2020-04-10.xlsx
+++ b/2020-03-11 - 2020-04-10.xlsx
@@ -263,55 +263,55 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,7 +618,7 @@
   <dimension ref="A2:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:H12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,876 +635,953 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>43901</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="15" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="15"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>43902</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="16" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="17"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>43903</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="16" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>43906</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="16" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="17"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="10">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>43907</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="16" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="6" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="17"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="10">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>43908</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="16" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="17"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
         <v>7</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <v>43909</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="16" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="17"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="10">
         <v>8</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>43910</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="16" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="17"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="10">
         <v>9</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>43913</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="16" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="10">
         <v>10</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>43914</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="16" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="17"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>43915</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="16" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="17"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="10">
         <v>12</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <v>43916</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="16" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="17"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="A33" s="10">
         <v>13</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <v>43917</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="16" t="s">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="17"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="10">
         <v>14</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="8">
         <v>43920</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="16" t="s">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="17"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="A37" s="10">
         <v>15</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <v>43921</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="16" t="s">
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="17"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="A39" s="10">
         <v>16</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="8">
         <v>43922</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="16" t="s">
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="17"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="A41" s="10">
         <v>17</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="8">
         <v>43923</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="16" t="s">
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="17"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="A43" s="10">
         <v>18</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="8">
         <v>43924</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="16" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="6" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+      <c r="A45" s="10">
         <v>19</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="8">
         <v>43927</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="16" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="17"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+      <c r="A47" s="10">
         <v>20</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="8">
         <v>43928</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="16" t="s">
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="6" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="17"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+      <c r="A49" s="10">
         <v>21</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="8">
         <v>43929</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="16" t="s">
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="6" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="17"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="A51" s="10">
         <v>22</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="8">
         <v>43930</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="16" t="s">
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="6" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="17"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="10">
         <v>23</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="8">
         <v>43931</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="16" t="s">
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="17"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B19:B20"/>
@@ -1529,114 +1606,41 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I9:I10" r:id="rId1" display="Source code"/>
-    <hyperlink ref="I11:I54" r:id="rId2" display="Source code"/>
+    <hyperlink ref="I11:I12" r:id="rId2" display="Source code"/>
+    <hyperlink ref="I13:I46" r:id="rId3" display="Source code"/>
+    <hyperlink ref="I51:I54" r:id="rId4" display="Source code"/>
+    <hyperlink ref="I49:I50" r:id="rId5" display="Source code"/>
+    <hyperlink ref="I47:I48" r:id="rId6" display="Source code"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
